--- a/Documentation/ProcessedDataset2.xlsx
+++ b/Documentation/ProcessedDataset2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/kk05088_st_habib_edu_pk/Documents/DSA/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\project-oak\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{34A23782-1C6D-4874-ABF0-14393D7D87C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F47B8B37-7B74-44F2-964D-07F1FE77F005}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB11D85-34D1-4CFD-AB44-19BECFF53D7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{5708F95C-B29E-4D4B-BEA3-D05B57C757EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{5708F95C-B29E-4D4B-BEA3-D05B57C757EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>points</t>
   </si>
@@ -210,18 +209,12 @@
     <t>Lal Qilla</t>
   </si>
   <si>
-    <t>Bilawal House</t>
-  </si>
-  <si>
     <t>Dua Resturant Bilawal House</t>
   </si>
   <si>
     <t>Bilawal House Chauk</t>
   </si>
   <si>
-    <t>Pizza Hut Boat Basin</t>
-  </si>
-  <si>
     <t>Boat Basin</t>
   </si>
   <si>
@@ -234,16 +227,10 @@
     <t>Delfrio Near Clifton JK</t>
   </si>
   <si>
-    <t>Hilal-e-ahmer</t>
-  </si>
-  <si>
     <t>Teen Talwar</t>
   </si>
   <si>
     <t>Cantt Station</t>
-  </si>
-  <si>
-    <t>Gem Homes</t>
   </si>
   <si>
     <t>Askari 3</t>
@@ -367,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,22 +736,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89940F3-CAEE-4CF8-BB39-909F6232D057}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0" xr3:uid="{B9B65889-5372-5604-9B6E-6DE84A266E85}">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection sqref="A1:F94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -801,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -818,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -835,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -852,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -869,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -886,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -903,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -920,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -937,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -954,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -971,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -988,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1005,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1022,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1039,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1056,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1073,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1090,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1107,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1124,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1141,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -1158,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -1175,7 +1162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1192,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -1209,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -1226,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -1243,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -1260,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -1277,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -1294,7 +1281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -1311,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1328,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -1345,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -1362,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -1379,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -1396,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -1413,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -1430,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9</v>
       </c>
@@ -1447,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>9</v>
       </c>
@@ -1464,7 +1451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
@@ -1481,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>9</v>
       </c>
@@ -1498,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -1515,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10</v>
       </c>
@@ -1532,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -1549,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
@@ -1566,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>12</v>
       </c>
@@ -1583,7 +1570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>12</v>
       </c>
@@ -1600,7 +1587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -1617,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>12</v>
       </c>
@@ -1634,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>12</v>
       </c>
@@ -1651,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>12</v>
       </c>
@@ -1668,7 +1655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>12</v>
       </c>
@@ -1685,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>13</v>
       </c>
@@ -1693,10 +1680,16 @@
         <v>59</v>
       </c>
       <c r="C55" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>21.3</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>13</v>
       </c>
@@ -1704,10 +1697,16 @@
         <v>60</v>
       </c>
       <c r="C56" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <v>20.3</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13</v>
       </c>
@@ -1715,13 +1714,16 @@
         <v>61</v>
       </c>
       <c r="C57" s="1">
-        <v>24</v>
+        <v>6.9</v>
       </c>
       <c r="E57">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>13</v>
       </c>
@@ -1729,13 +1731,16 @@
         <v>62</v>
       </c>
       <c r="C58" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>13</v>
       </c>
@@ -1743,13 +1748,16 @@
         <v>63</v>
       </c>
       <c r="C59" s="1">
-        <v>6.9</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>14</v>
       </c>
@@ -1757,10 +1765,16 @@
         <v>64</v>
       </c>
       <c r="C60" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>22.8</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>14</v>
       </c>
@@ -1768,10 +1782,16 @@
         <v>65</v>
       </c>
       <c r="C61" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>21.4</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -1779,10 +1799,16 @@
         <v>66</v>
       </c>
       <c r="C62" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>19.5</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>14</v>
       </c>
@@ -1790,10 +1816,16 @@
         <v>67</v>
       </c>
       <c r="C63" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>14</v>
       </c>
@@ -1801,23 +1833,35 @@
         <v>68</v>
       </c>
       <c r="C64" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>24.1</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>70</v>
@@ -1825,19 +1869,31 @@
       <c r="C66" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="E66">
+        <v>22.4</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>15</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C67" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>19.2</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>15</v>
       </c>
@@ -1845,54 +1901,84 @@
         <v>72</v>
       </c>
       <c r="C68" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>74.7</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>15</v>
-      </c>
-      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>60.6</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>16</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>59.7</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>16</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="E72">
+        <v>37.6</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>16</v>
       </c>
@@ -1900,54 +1986,82 @@
         <v>77</v>
       </c>
       <c r="C73" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>3.8</v>
+      </c>
+      <c r="E73">
+        <v>15.2</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>16</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E74">
+        <v>13.3</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>16</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>3.8</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>16</v>
-      </c>
-      <c r="B76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>5.8</v>
+      </c>
+      <c r="E76">
+        <v>13.8</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>13.5</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>17</v>
       </c>
@@ -1955,63 +2069,101 @@
         <v>82</v>
       </c>
       <c r="C78" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>9.6</v>
+      </c>
+      <c r="E78">
+        <v>12.5</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>17</v>
-      </c>
-      <c r="B79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C79" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>8.4</v>
+      </c>
+      <c r="E79">
+        <v>11.8</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C80" s="1">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>11.8</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>18</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" s="1">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>9.5</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C82" s="1">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>55.3</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C83" s="1">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>9.5</v>
+      </c>
+      <c r="E83">
+        <v>53.9</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>19</v>
       </c>
@@ -2019,10 +2171,16 @@
         <v>88</v>
       </c>
       <c r="C84" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E84">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>19</v>
       </c>
@@ -2030,10 +2188,16 @@
         <v>89</v>
       </c>
       <c r="C85" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>8.9</v>
+      </c>
+      <c r="E85">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>19</v>
       </c>
@@ -2041,10 +2205,16 @@
         <v>90</v>
       </c>
       <c r="C86" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>3.8</v>
+      </c>
+      <c r="E86">
+        <v>13.7</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>19</v>
       </c>
@@ -2052,65 +2222,101 @@
         <v>91</v>
       </c>
       <c r="C87" s="1">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>9.9</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>19</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="E88">
+        <v>3.8</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>20</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>19</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="E89">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>20</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="1">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>19</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C90" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>11.1</v>
+      </c>
+      <c r="E90">
+        <v>16</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>20</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>19.5</v>
+      </c>
+      <c r="E91">
+        <v>14.4</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>20</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E92">
+        <v>13.2</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>20</v>
       </c>
@@ -2118,43 +2324,55 @@
         <v>96</v>
       </c>
       <c r="C93" s="1">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>14.4</v>
+      </c>
+      <c r="E93">
+        <v>10.8</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>20</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C94" s="1">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>9.9</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C95" s="1">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C96" s="1">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>21</v>
       </c>
@@ -2162,10 +2380,10 @@
         <v>100</v>
       </c>
       <c r="C97" s="1">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>21</v>
       </c>
@@ -2173,10 +2391,10 @@
         <v>101</v>
       </c>
       <c r="C98" s="1">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>21</v>
       </c>
@@ -2184,206 +2402,162 @@
         <v>102</v>
       </c>
       <c r="C99" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>21</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>22</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="1">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>21</v>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>22</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="1">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>21</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="1">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>21</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>22</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>22</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133">
         <v>26</v>
       </c>
     </row>
